--- a/target/classes/TestData/RegisterDetails.xlsx
+++ b/target/classes/TestData/RegisterDetails.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Ranjan</t>
+  </si>
+  <si>
+    <t>Verify Login</t>
+  </si>
+  <si>
+    <t>Pune</t>
   </si>
 </sst>
 </file>
@@ -381,7 +387,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,10 +439,16 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/TestData/RegisterDetails.xlsx
+++ b/target/classes/TestData/RegisterDetails.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -33,30 +33,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Email Address</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Hobbies</t>
-  </si>
-  <si>
-    <t>Languages</t>
-  </si>
-  <si>
-    <t>Skills</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Date Of Birth</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rohit </t>
   </si>
   <si>
@@ -67,6 +43,9 @@
   </si>
   <si>
     <t>Pune</t>
+  </si>
+  <si>
+    <t>Ritesh</t>
   </si>
 </sst>
 </file>
@@ -384,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,10 +375,9 @@
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="4" max="4" width="30.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,43 +390,33 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/TestData/RegisterDetails.xlsx
+++ b/target/classes/TestData/RegisterDetails.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Pune</t>
-  </si>
-  <si>
-    <t>Ritesh</t>
   </si>
 </sst>
 </file>
@@ -363,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,20 +402,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/TestData/RegisterDetails.xlsx
+++ b/target/classes/TestData/RegisterDetails.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11775" windowHeight="3945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -360,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,6 +403,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
